--- a/Perhitungan BAB 3.xlsx
+++ b/Perhitungan BAB 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S K R I P S I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F7A3B1-BD01-4597-9ED1-0E3859EB8948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EB227-51C8-417A-97E5-5E0A3F616B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E05C70A8-F965-40A1-91C7-C2470C9E4727}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E05C70A8-F965-40A1-91C7-C2470C9E4727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Mencari Nilai (Ki)</t>
   </si>
   <si>
-    <t>/ 0,1287</t>
-  </si>
-  <si>
     <t>Nilai Fungsi Optimalisasi</t>
   </si>
   <si>
@@ -435,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,18 +521,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -907,11 +911,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1037,25 +1054,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,34 +1126,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,64 +1135,58 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,8 +1768,8 @@
       <xdr:rowOff>122360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="331757"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1782,6 +1811,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1834,7 +1864,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2222,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99585972-C7C6-413A-8BDE-B0A15C775BFF}">
   <dimension ref="B1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2267,7 @@
     <col min="7" max="7" width="13.5703125" style="18" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="18" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="18" customWidth="1"/>
     <col min="11" max="11" width="7" style="18" customWidth="1"/>
     <col min="12" max="12" width="35.85546875" style="18" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="18" customWidth="1"/>
@@ -2246,32 +2276,34 @@
     <col min="16" max="16" width="10" style="18" customWidth="1"/>
     <col min="17" max="17" width="22.140625" style="18" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" style="18" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="18"/>
+    <col min="19" max="25" width="9.140625" style="18"/>
+    <col min="26" max="26" width="9.140625" style="18" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="J1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="P1" s="45" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="P1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
@@ -2678,15 +2710,15 @@
     </row>
     <row r="13" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
@@ -2943,21 +2975,21 @@
     </row>
     <row r="26" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="45" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
     </row>
     <row r="28" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
@@ -2983,10 +3015,10 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="65" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -3006,8 +3038,8 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="25">
         <v>4</v>
       </c>
@@ -3020,7 +3052,7 @@
       <c r="G30" s="25">
         <v>4</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="44">
         <v>4</v>
       </c>
     </row>
@@ -3232,10 +3264,10 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="15">
@@ -3255,10 +3287,10 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="83"/>
+      <c r="B41" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="64"/>
       <c r="D41" s="30">
         <f>SUM(D30:D40)</f>
         <v>30</v>
@@ -3281,13 +3313,13 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
@@ -3308,7 +3340,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3328,7 +3360,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="43"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="7" t="s">
         <v>66</v>
       </c>
@@ -3346,7 +3378,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="43"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="7" t="s">
         <v>65</v>
       </c>
@@ -3364,7 +3396,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3384,7 +3416,7 @@
       </c>
     </row>
     <row r="49" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="44"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="7" t="s">
         <v>62</v>
       </c>
@@ -3403,7 +3435,7 @@
       <c r="I49"/>
     </row>
     <row r="50" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="58" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -3423,14 +3455,14 @@
       </c>
     </row>
     <row r="51" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="43"/>
-      <c r="D51" s="68" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="49" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="48" t="s">
         <v>84</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -3441,14 +3473,14 @@
       </c>
     </row>
     <row r="52" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="43"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="48" t="s">
         <v>62</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -3459,14 +3491,14 @@
       </c>
     </row>
     <row r="53" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="43"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="67" t="s">
+      <c r="F53" s="48" t="s">
         <v>84</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -3494,17 +3526,17 @@
       </c>
     </row>
     <row r="56" spans="3:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="M56" s="69"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="M56" s="50"/>
     </row>
     <row r="57" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="67" t="s">
         <v>81</v>
       </c>
       <c r="D57" s="33">
@@ -3522,14 +3554,14 @@
       <c r="H57" s="35">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J57" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
     </row>
     <row r="58" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="56"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="7">
         <v>1.66E-2</v>
       </c>
@@ -3548,7 +3580,7 @@
       <c r="K58" s="17"/>
     </row>
     <row r="59" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="56"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3566,7 +3598,7 @@
       </c>
     </row>
     <row r="60" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="56"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="7">
         <v>1.66E-2</v>
       </c>
@@ -3584,7 +3616,7 @@
       </c>
     </row>
     <row r="61" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="56"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3602,7 +3634,7 @@
       </c>
     </row>
     <row r="62" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="56"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="7">
         <v>3.3300000000000003E-2</v>
       </c>
@@ -3618,12 +3650,12 @@
       <c r="H62" s="37">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="I62" s="70" t="s">
-        <v>112</v>
+      <c r="I62" s="76" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C63" s="56"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="7">
         <v>1.66E-2</v>
       </c>
@@ -3639,10 +3671,10 @@
       <c r="H63" s="13">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="I63" s="70"/>
+      <c r="I63" s="76"/>
     </row>
     <row r="64" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C64" s="56"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="7">
         <v>8.3000000000000001E-3</v>
       </c>
@@ -3659,8 +3691,8 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C65" s="56"/>
+    <row r="65" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="67"/>
       <c r="D65" s="7">
         <v>3.3300000000000003E-2</v>
       </c>
@@ -3677,8 +3709,8 @@
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="56"/>
+    <row r="66" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="67"/>
       <c r="D66" s="7">
         <v>1.66E-2</v>
       </c>
@@ -3695,8 +3727,8 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="56"/>
+    <row r="67" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="67"/>
       <c r="D67" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3713,348 +3745,416 @@
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C68" s="57"/>
-    </row>
-    <row r="69" spans="3:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="53"/>
-      <c r="G69" s="66" t="s">
+    <row r="68" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="47"/>
+    </row>
+    <row r="69" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="45"/>
+      <c r="G69" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="66"/>
-    </row>
-    <row r="70" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="61"/>
-      <c r="G70" s="54">
+      <c r="H69" s="59"/>
+      <c r="J69" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="71"/>
+      <c r="G70" s="46">
         <f>SUM(D57:H57)</f>
         <v>0.12870000000000001</v>
       </c>
-      <c r="H70" s="73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="59"/>
-      <c r="D71" s="62">
+      <c r="H70" s="78">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="I70" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="84">
+        <f>G70/H70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="73"/>
+      <c r="D71" s="68">
         <f>SUM(D57:H57)</f>
         <v>0.12870000000000001</v>
       </c>
-      <c r="E71" s="63"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="42"/>
-      <c r="G71" s="71">
+      <c r="G71" s="51">
         <f t="shared" ref="G71:G80" si="1">SUM(D58:H58)</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="H71" s="74"/>
-    </row>
-    <row r="72" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="59"/>
-      <c r="D72" s="62">
+      <c r="H71" s="79"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="85">
+        <f>G71/H70</f>
+        <v>0.64102564102564097</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="73"/>
+      <c r="D72" s="68">
         <f t="shared" ref="D72:D80" si="2">SUM(D58:H58)</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="E72" s="63"/>
-      <c r="G72" s="71">
+      <c r="E72" s="69"/>
+      <c r="G72" s="51">
         <f t="shared" si="1"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="H72" s="74"/>
-    </row>
-    <row r="73" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="59"/>
-      <c r="D73" s="62">
+      <c r="H72" s="79"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="85">
+        <f>G72/H70</f>
+        <v>0.79254079254079257</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="73"/>
+      <c r="D73" s="68">
         <f t="shared" si="2"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="E73" s="63"/>
-      <c r="G73" s="71">
+      <c r="E73" s="69"/>
+      <c r="G73" s="51">
         <f t="shared" si="1"/>
         <v>7.4900000000000008E-2</v>
       </c>
-      <c r="H73" s="74"/>
-    </row>
-    <row r="74" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="59"/>
-      <c r="D74" s="62">
+      <c r="H73" s="79"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="85">
+        <f>G73/H70</f>
+        <v>0.58197358197358195</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="73"/>
+      <c r="D74" s="68">
         <f t="shared" si="2"/>
         <v>7.4900000000000008E-2</v>
       </c>
-      <c r="E74" s="63"/>
-      <c r="F74" s="55" t="s">
+      <c r="E74" s="69"/>
+      <c r="F74" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="71">
+      <c r="G74" s="51">
         <f t="shared" si="1"/>
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="H74" s="74"/>
-    </row>
-    <row r="75" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="59"/>
-      <c r="D75" s="62">
+      <c r="H74" s="79"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="85">
+        <f>G74/H70</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="73"/>
+      <c r="D75" s="68">
         <f t="shared" si="2"/>
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="E75" s="63"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="71">
+      <c r="E75" s="69"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="51">
         <f t="shared" si="1"/>
         <v>0.12110000000000001</v>
       </c>
-      <c r="H75" s="74"/>
-    </row>
-    <row r="76" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="59"/>
-      <c r="D76" s="62">
+      <c r="H75" s="79"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="85">
+        <f>G75/H70</f>
+        <v>0.94094794094794099</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="73"/>
+      <c r="D76" s="68">
         <f t="shared" si="2"/>
         <v>0.12110000000000001</v>
       </c>
-      <c r="E76" s="63"/>
-      <c r="G76" s="71">
+      <c r="E76" s="69"/>
+      <c r="G76" s="51">
         <f t="shared" si="1"/>
         <v>7.4900000000000008E-2</v>
       </c>
-      <c r="H76" s="74"/>
-    </row>
-    <row r="77" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="59"/>
-      <c r="D77" s="62">
+      <c r="H76" s="79"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="85">
+        <f>G76/H70</f>
+        <v>0.58197358197358195</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="73"/>
+      <c r="D77" s="68">
         <f t="shared" si="2"/>
         <v>7.4900000000000008E-2</v>
       </c>
-      <c r="E77" s="63"/>
-      <c r="G77" s="71">
+      <c r="E77" s="69"/>
+      <c r="G77" s="51">
         <f t="shared" si="1"/>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="H77" s="74"/>
-    </row>
-    <row r="78" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="59"/>
-      <c r="D78" s="62">
+      <c r="H77" s="79"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="85">
+        <f>G77/H70</f>
+        <v>0.30769230769230765</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="73"/>
+      <c r="D78" s="68">
         <f t="shared" si="2"/>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="E78" s="63"/>
-      <c r="G78" s="71">
+      <c r="E78" s="69"/>
+      <c r="G78" s="51">
         <f t="shared" si="1"/>
         <v>0.11790000000000002</v>
       </c>
-      <c r="H78" s="74"/>
-    </row>
-    <row r="79" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="59"/>
-      <c r="D79" s="62">
+      <c r="H78" s="79"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="85">
+        <f>G78/H70</f>
+        <v>0.91608391608391615</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="73"/>
+      <c r="D79" s="68">
         <f t="shared" si="2"/>
         <v>0.11790000000000002</v>
       </c>
-      <c r="E79" s="63"/>
-      <c r="G79" s="71">
+      <c r="E79" s="69"/>
+      <c r="G79" s="51">
         <f t="shared" si="1"/>
         <v>6.1800000000000008E-2</v>
       </c>
-      <c r="H79" s="74"/>
-    </row>
-    <row r="80" spans="3:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="59"/>
-      <c r="D80" s="64">
+      <c r="H79" s="79"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="85">
+        <f>G79/H70</f>
+        <v>0.48018648018648019</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="73"/>
+      <c r="D80" s="81">
         <f t="shared" si="2"/>
         <v>6.1800000000000008E-2</v>
       </c>
-      <c r="E80" s="65"/>
-      <c r="G80" s="72">
+      <c r="E80" s="82"/>
+      <c r="G80" s="52">
         <f t="shared" si="1"/>
         <v>0.10890000000000001</v>
       </c>
-      <c r="H80" s="75"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="86">
+        <f>G80/H70</f>
+        <v>0.84615384615384615</v>
+      </c>
     </row>
     <row r="82" spans="4:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
+      <c r="D82" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" spans="4:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E83" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="77"/>
+      <c r="G83" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F83" s="76"/>
-      <c r="G83" s="20" t="s">
+      <c r="H83" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="84" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D84" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="H84" s="77" t="s">
-        <v>101</v>
+      <c r="F84" s="74"/>
+      <c r="G84" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="H85" s="77" t="s">
-        <v>102</v>
+      <c r="F85" s="74"/>
+      <c r="G85" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D86" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="H86" s="77" t="s">
-        <v>103</v>
+      <c r="F86" s="74"/>
+      <c r="G86" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D87" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F87" s="49"/>
-      <c r="G87" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H87" s="77" t="s">
-        <v>104</v>
+      <c r="F87" s="74"/>
+      <c r="G87" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="53" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D88" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="H88" s="77" t="s">
-        <v>105</v>
+      <c r="F88" s="74"/>
+      <c r="G88" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D89" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="77" t="s">
-        <v>106</v>
+      <c r="F89" s="74"/>
+      <c r="G89" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D90" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H90" s="77" t="s">
-        <v>107</v>
+      <c r="F90" s="74"/>
+      <c r="G90" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D91" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="49" t="s">
+      <c r="E91" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="49"/>
-      <c r="G91" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H91" s="77" t="s">
-        <v>108</v>
+      <c r="F91" s="74"/>
+      <c r="G91" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" s="53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D92" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E92" s="49" t="s">
+      <c r="E92" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="49"/>
-      <c r="G92" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="H92" s="77" t="s">
-        <v>109</v>
+      <c r="F92" s="74"/>
+      <c r="G92" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92" s="53" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="4:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="78" t="s">
+      <c r="E93" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="78"/>
-      <c r="G93" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="H93" s="80" t="s">
-        <v>110</v>
+      <c r="F93" s="75"/>
+      <c r="G93" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" s="55" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="J57:L57"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H70:H80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="I70:I80"/>
     <mergeCell ref="E93:F93"/>
     <mergeCell ref="E92:F92"/>
     <mergeCell ref="E91:F91"/>
@@ -4065,20 +4165,6 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="D82:H82"/>
-    <mergeCell ref="H70:H80"/>
-    <mergeCell ref="C57:C67"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="C70:C80"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:S1"/>
@@ -4094,6 +4180,13 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="D56:H56"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="C70:C80"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
